--- a/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
+++ b/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Макс ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90267F7A-5F18-4C97-A365-0E5D35AD1E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BDDE8B-7C71-455A-B699-59A171061E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,5 +914,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
+++ b/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Макс ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BDDE8B-7C71-455A-B699-59A171061E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D943D7-7E7E-4DFA-B5F8-ACCE0B80E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Артикул</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Термонаклейка Джерри ест сыр</t>
+  </si>
+  <si>
+    <t>всего</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,12 +509,12 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -519,8 +522,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -533,8 +539,12 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>B2/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -547,8 +557,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E29" si="0">B3/2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -561,8 +575,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -575,8 +593,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,8 +611,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -603,8 +629,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -617,8 +647,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,8 +665,12 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -645,8 +683,12 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -659,8 +701,12 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -673,8 +719,12 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -687,8 +737,12 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -701,8 +755,12 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -715,8 +773,12 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -729,8 +791,12 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -743,8 +809,12 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -757,8 +827,12 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -771,8 +845,12 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -785,8 +863,12 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -799,8 +881,12 @@
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -813,8 +899,12 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -827,8 +917,12 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -841,8 +935,12 @@
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -855,8 +953,12 @@
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -869,8 +971,12 @@
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -883,8 +989,12 @@
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -897,8 +1007,12 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -910,6 +1024,10 @@
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
+++ b/MainTop/27.10.2025 Макс ВБ/spros_print_sorted_print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D943D7-7E7E-4DFA-B5F8-ACCE0B80E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA8414-6624-455E-A0ED-A822E182EB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <t>Термонаклейка Джерри ест сыр</t>
   </si>
   <si>
-    <t>всего</t>
+    <t>в 2 города</t>
   </si>
 </sst>
 </file>
@@ -189,12 +189,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,21 +504,23 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -522,8 +528,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,7 +545,7 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f>B2/2</f>
         <v>4</v>
       </c>
@@ -557,7 +563,7 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E29" si="0">B3/2</f>
         <v>3</v>
       </c>
@@ -575,7 +581,7 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -593,7 +599,7 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -611,7 +617,7 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -629,7 +635,7 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -647,7 +653,7 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -665,7 +671,7 @@
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -683,7 +689,7 @@
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -701,7 +707,7 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -719,7 +725,7 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -737,7 +743,7 @@
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -755,7 +761,7 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -773,7 +779,7 @@
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -791,7 +797,7 @@
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -809,7 +815,7 @@
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -845,7 +851,7 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -881,7 +887,7 @@
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -899,7 +905,7 @@
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -917,7 +923,7 @@
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -935,7 +941,7 @@
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -953,7 +959,7 @@
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -971,7 +977,7 @@
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -989,7 +995,7 @@
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1007,7 +1013,7 @@
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
